--- a/Weather Scoring.xlsx
+++ b/Weather Scoring.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazmu\OneDrive\Desktop\project-one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5741D68-C191-4218-BF3E-BCC4FE76F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F415E-519A-4FE9-B77D-0EFC91C3F0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Humidity</t>
   </si>
@@ -114,31 +114,19 @@
     <t>Wind Speed (MPH)</t>
   </si>
   <si>
-    <t>&lt;3</t>
-  </si>
-  <si>
-    <t>&lt;12</t>
-  </si>
-  <si>
     <t>&lt;18</t>
   </si>
   <si>
-    <t>&lt;24</t>
-  </si>
-  <si>
     <t>&lt;31</t>
   </si>
   <si>
-    <t>&lt;38</t>
-  </si>
-  <si>
     <t>&lt;46</t>
   </si>
   <si>
-    <t>&lt;54</t>
-  </si>
-  <si>
-    <t>&gt;=63</t>
+    <t>&lt;63</t>
+  </si>
+  <si>
+    <t>&gt;= 63</t>
   </si>
 </sst>
 </file>
@@ -189,12 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,20 +475,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O12"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,26 +500,20 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -544,26 +526,20 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="1">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,26 +552,20 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -608,26 +578,20 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,26 +604,20 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,114 +630,132 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F12">
